--- a/excel/collective/zestawy_dla_uczniow/zestaw_028.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_028.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
   <si>
     <t>ZESTAW ZADAŃ NR 28 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Oliwia Urbaniak</t>
-  </si>
-  <si>
-    <t>Oliwia Bednarska</t>
-  </si>
-  <si>
-    <t>Lena Kubiak</t>
-  </si>
-  <si>
-    <t>Lena Lis</t>
-  </si>
-  <si>
-    <t>Kacper Kowalczyk</t>
+    <t>Julia Jaworska</t>
+  </si>
+  <si>
+    <t>Antoni Lewandowski</t>
+  </si>
+  <si>
+    <t>Oliwia Jaworska</t>
+  </si>
+  <si>
+    <t>Wojciech Krawczyk</t>
+  </si>
+  <si>
+    <t>Kacper Kamiński</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>6,10</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>12,10</t>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,40</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>9,00</t>
   </si>
   <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>2,00</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>11,20</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>4,00</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>4,20</t>
+    <t>4,90</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>2,30</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,30</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>5,10</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>5,29</t>
+    <t>26,67</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>2,75</t>
+    <t>19,61</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>23,12</t>
+    <t>30,57</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>16,10</t>
+    <t>26,51</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>3,98</t>
+    <t>21,53</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>10,21</t>
-  </si>
-  <si>
-    <t>18,78</t>
-  </si>
-  <si>
-    <t>18,15</t>
-  </si>
-  <si>
-    <t>11,67</t>
-  </si>
-  <si>
-    <t>7,82</t>
+    <t>16,80</t>
+  </si>
+  <si>
+    <t>17,63</t>
+  </si>
+  <si>
+    <t>2,63</t>
+  </si>
+  <si>
+    <t>19,76</t>
+  </si>
+  <si>
+    <t>17,69</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>3,75</t>
-  </si>
-  <si>
-    <t>27,22</t>
-  </si>
-  <si>
-    <t>28,46</t>
-  </si>
-  <si>
-    <t>23,95</t>
-  </si>
-  <si>
-    <t>8,73</t>
+    <t>10,52</t>
+  </si>
+  <si>
+    <t>9,25</t>
+  </si>
+  <si>
+    <t>10,08</t>
+  </si>
+  <si>
+    <t>20,31</t>
+  </si>
+  <si>
+    <t>29,78</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,51 +340,39 @@
     <t>Czy pasek?</t>
   </si>
   <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Grabowski</t>
+  </si>
+  <si>
     <t>Natalia</t>
   </si>
   <si>
+    <t>Urbaniak</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Kowalczyk</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
     <t>Wójcik</t>
   </si>
   <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>Król</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Woźniak</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Piekarska</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Jaworska</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Bednarska</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Mazur</t>
-  </si>
-  <si>
-    <t>Kaźmierczak</t>
-  </si>
-  <si>
     <t>Średnia przedmiotu:</t>
   </si>
   <si>
@@ -418,121 +406,148 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Julia Jaworska</t>
-  </si>
-  <si>
-    <t>03.09.1998</t>
-  </si>
-  <si>
-    <t>3 394,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Olszewska</t>
-  </si>
-  <si>
-    <t>08.09.1983</t>
-  </si>
-  <si>
-    <t>10 596,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Zieliński</t>
-  </si>
-  <si>
-    <t>18.11.1984</t>
-  </si>
-  <si>
-    <t>14 046,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>09.05.1978</t>
-  </si>
-  <si>
-    <t>8 595,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Kowalczyk</t>
-  </si>
-  <si>
-    <t>02.02.1998</t>
-  </si>
-  <si>
-    <t>4 817,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Kaźmierczak</t>
-  </si>
-  <si>
-    <t>12.02.1975</t>
-  </si>
-  <si>
-    <t>3 809,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Wojciechowski</t>
-  </si>
-  <si>
-    <t>28.05.2003</t>
-  </si>
-  <si>
-    <t>9 390,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Lewandowski</t>
-  </si>
-  <si>
-    <t>15.03.1992</t>
-  </si>
-  <si>
-    <t>10 720,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Wójcik</t>
-  </si>
-  <si>
-    <t>04.11.2003</t>
-  </si>
-  <si>
-    <t>8 299,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Kwiatkowski</t>
-  </si>
-  <si>
-    <t>15.11.1998</t>
-  </si>
-  <si>
-    <t>11 398,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Sadowska</t>
-  </si>
-  <si>
-    <t>02.11.1979</t>
-  </si>
-  <si>
-    <t>10 820,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Kozłowski</t>
-  </si>
-  <si>
-    <t>09.11.1989</t>
-  </si>
-  <si>
-    <t>8 197,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Wójcik</t>
-  </si>
-  <si>
-    <t>16.03.1986</t>
-  </si>
-  <si>
-    <t>6 898,00 zł</t>
+    <t>Lena Olszewska</t>
+  </si>
+  <si>
+    <t>25.09.1996</t>
+  </si>
+  <si>
+    <t>14 048,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Wilk</t>
+  </si>
+  <si>
+    <t>08.05.1975</t>
+  </si>
+  <si>
+    <t>12 494,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Piotrowski</t>
+  </si>
+  <si>
+    <t>17.01.1998</t>
+  </si>
+  <si>
+    <t>3 793,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Maciejewska</t>
+  </si>
+  <si>
+    <t>09.10.1979</t>
+  </si>
+  <si>
+    <t>4 739,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Zawadzka</t>
+  </si>
+  <si>
+    <t>21.04.1985</t>
+  </si>
+  <si>
+    <t>12 337,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Olszewska</t>
+  </si>
+  <si>
+    <t>24.03.1992</t>
+  </si>
+  <si>
+    <t>11 806,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Kowalski</t>
+  </si>
+  <si>
+    <t>18.09.1992</t>
+  </si>
+  <si>
+    <t>3 681,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Kamiński</t>
+  </si>
+  <si>
+    <t>01.03.2004</t>
+  </si>
+  <si>
+    <t>13 927,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Wójcik</t>
+  </si>
+  <si>
+    <t>24.07.1980</t>
+  </si>
+  <si>
+    <t>6 953,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Rogalska</t>
+  </si>
+  <si>
+    <t>15.12.1985</t>
+  </si>
+  <si>
+    <t>6 972,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Jaworska</t>
+  </si>
+  <si>
+    <t>24.03.1996</t>
+  </si>
+  <si>
+    <t>11 522,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Zawadzka</t>
+  </si>
+  <si>
+    <t>21.08.1983</t>
+  </si>
+  <si>
+    <t>9 408,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Nowak</t>
+  </si>
+  <si>
+    <t>23.07.1993</t>
+  </si>
+  <si>
+    <t>4 351,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Bednarska</t>
+  </si>
+  <si>
+    <t>09.01.1988</t>
+  </si>
+  <si>
+    <t>12 085,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Kowalczyk</t>
+  </si>
+  <si>
+    <t>06.10.1980</t>
+  </si>
+  <si>
+    <t>3 191,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Rogalska</t>
+  </si>
+  <si>
+    <t>17.10.1995</t>
+  </si>
+  <si>
+    <t>9 528,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -604,271 +619,283 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Marzec</t>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 204,00 zł</t>
+  </si>
+  <si>
+    <t>1 625,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>800,00 zł</t>
+  </si>
+  <si>
+    <t>928,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 396,00 zł</t>
-  </si>
-  <si>
-    <t>1 633,00 zł</t>
+    <t>755,00 zł</t>
+  </si>
+  <si>
+    <t>929,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>577,00 zł</t>
+  </si>
+  <si>
+    <t>721,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>968,00 zł</t>
+  </si>
+  <si>
+    <t>1 258,00 zł</t>
   </si>
   <si>
     <t>Anna Nowak</t>
   </si>
   <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 107,00 zł</t>
-  </si>
-  <si>
-    <t>1 439,00 zł</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 120,00 zł</t>
-  </si>
-  <si>
-    <t>1 355,00 zł</t>
+    <t>1 164,00 zł</t>
+  </si>
+  <si>
+    <t>1 630,00 zł</t>
   </si>
   <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 346,00 zł</t>
+  </si>
+  <si>
+    <t>1 683,00 zł</t>
+  </si>
+  <si>
+    <t>opolskie</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 004,00 zł</t>
-  </si>
-  <si>
-    <t>1 245,00 zł</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>888,00 zł</t>
-  </si>
-  <si>
-    <t>1 146,00 zł</t>
+    <t>1 095,00 zł</t>
+  </si>
+  <si>
+    <t>1 205,00 zł</t>
+  </si>
+  <si>
+    <t>1 455,00 zł</t>
+  </si>
+  <si>
+    <t>1 790,00 zł</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>587,00 zł</t>
+  </si>
+  <si>
+    <t>646,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>720,00 zł</t>
+  </si>
+  <si>
+    <t>886,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>1 370,00 zł</t>
+  </si>
+  <si>
+    <t>1 534,00 zł</t>
   </si>
   <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
-    <t>673,00 zł</t>
-  </si>
-  <si>
-    <t>861,00 zł</t>
+    <t>1 145,00 zł</t>
+  </si>
+  <si>
+    <t>1 271,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>1 349,00 zł</t>
+  </si>
+  <si>
+    <t>1 700,00 zł</t>
   </si>
   <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>763,00 zł</t>
-  </si>
-  <si>
-    <t>847,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>744,00 zł</t>
-  </si>
-  <si>
-    <t>937,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>1 471,00 zł</t>
-  </si>
-  <si>
-    <t>1 662,00 zł</t>
-  </si>
-  <si>
-    <t>696,00 zł</t>
-  </si>
-  <si>
-    <t>884,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>1 073,00 zł</t>
+  </si>
+  <si>
+    <t>1 266,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 440,00 zł</t>
+  </si>
+  <si>
+    <t>1 872,00 zł</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>522,00 zł</t>
+  </si>
+  <si>
+    <t>731,00 zł</t>
+  </si>
+  <si>
+    <t>809,00 zł</t>
+  </si>
+  <si>
+    <t>1 011,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>1 410,00 zł</t>
+  </si>
+  <si>
+    <t>1 875,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>938,00 zł</t>
+  </si>
+  <si>
+    <t>1 294,00 zł</t>
+  </si>
+  <si>
+    <t>1 130,00 zł</t>
+  </si>
+  <si>
+    <t>1 300,00 zł</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 082,00 zł</t>
+  </si>
+  <si>
+    <t>1 288,00 zł</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>742,00 zł</t>
+  </si>
+  <si>
+    <t>987,00 zł</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 021,00 zł</t>
   </si>
   <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 270,00 zł</t>
-  </si>
-  <si>
-    <t>1 422,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>527,00 zł</t>
-  </si>
-  <si>
-    <t>596,00 zł</t>
-  </si>
-  <si>
-    <t>535,00 zł</t>
-  </si>
-  <si>
-    <t>605,00 zł</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>645,00 zł</t>
-  </si>
-  <si>
-    <t>813,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>1 020,00 zł</t>
-  </si>
-  <si>
-    <t>1 418,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 408,00 zł</t>
-  </si>
-  <si>
-    <t>1 549,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 161,00 zł</t>
-  </si>
-  <si>
-    <t>1 521,00 zł</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 007,00 zł</t>
-  </si>
-  <si>
-    <t>1 128,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 452,00 zł</t>
-  </si>
-  <si>
-    <t>1 975,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 462,00 zł</t>
-  </si>
-  <si>
-    <t>1 754,00 zł</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>1 307,00 zł</t>
-  </si>
-  <si>
-    <t>1 699,00 zł</t>
-  </si>
-  <si>
-    <t>1 033,00 zł</t>
-  </si>
-  <si>
-    <t>1 436,00 zł</t>
-  </si>
-  <si>
-    <t>1 167,00 zł</t>
-  </si>
-  <si>
-    <t>1 330,00 zł</t>
-  </si>
-  <si>
-    <t>1 342,00 zł</t>
-  </si>
-  <si>
-    <t>1 731,00 zł</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 481,00 zł</t>
-  </si>
-  <si>
-    <t>2 044,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
+    <t>1 282,00 zł</t>
+  </si>
+  <si>
+    <t>1 756,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1428,13 +1455,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
         <v>4</v>
@@ -1446,19 +1473,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
         <v>6</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
         <v>5</v>
       </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1467,19 +1494,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="D19" s="3">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1488,19 +1515,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
         <v>6</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>5</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1509,19 +1536,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
         <v>6</v>
       </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="F21" s="3">
         <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>6</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1530,10 +1557,10 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
@@ -1551,19 +1578,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1572,19 +1599,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="3">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3">
         <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1593,19 +1620,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
         <v>6</v>
       </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
       <c r="F25" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1614,19 +1641,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1638,7 +1665,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3">
         <v>4</v>
@@ -1647,7 +1674,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1656,19 +1683,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
         <v>2</v>
       </c>
-      <c r="D28" s="3">
+      <c r="F28" s="3">
         <v>3</v>
-      </c>
-      <c r="E28" s="3">
-        <v>4</v>
-      </c>
-      <c r="F28" s="3">
-        <v>5</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1790,7 +1817,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1805,7 +1832,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1820,7 +1847,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1835,7 +1862,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1850,7 +1877,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1865,7 +1892,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1982,7 +2009,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -1994,7 +2021,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2006,7 +2033,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2018,7 +2045,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2030,7 +2057,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2078,7 +2105,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2090,7 +2117,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2102,7 +2129,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2114,7 +2141,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2126,7 +2153,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2174,7 +2201,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2198,7 +2225,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2210,7 +2237,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2222,7 +2249,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2256,10 +2283,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A20" sqref="A20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2365,25 +2392,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
         <v>6</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>3</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
         <v>6</v>
-      </c>
-      <c r="G12" s="3">
-        <v>6</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>6</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2397,25 +2424,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="I13" s="3">
         <v>2</v>
       </c>
-      <c r="G13" s="3">
-        <v>4</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>6</v>
-      </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2429,25 +2456,25 @@
         <v>111</v>
       </c>
       <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="3">
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
-        <v>6</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2455,31 +2482,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
         <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6</v>
-      </c>
-      <c r="H15" s="3">
-        <v>6</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2487,31 +2514,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="3">
-        <v>6</v>
-      </c>
       <c r="F16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
         <v>5</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>2</v>
-      </c>
-      <c r="J16" s="3">
-        <v>5</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2519,25 +2546,25 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
         <v>6</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="3">
-        <v>5</v>
-      </c>
       <c r="H17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="3">
         <v>2</v>
@@ -2551,70 +2578,54 @@
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H18" s="3">
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4</v>
-      </c>
-      <c r="G19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3">
-        <v>4</v>
-      </c>
-      <c r="I19" s="3">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
-        <v>4</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="A19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2628,27 +2639,11 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2661,10 +2656,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A30" sqref="A30:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2676,7 +2671,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2686,210 +2681,243 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="3" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
         <v>170</v>
       </c>
+      <c r="B25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="A26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>175</v>
+      <c r="A29" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2926,7 +2954,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2936,75 +2964,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3012,22 +3040,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3035,22 +3063,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3058,22 +3086,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3081,22 +3109,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3104,22 +3132,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3127,22 +3155,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3150,22 +3178,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3173,22 +3201,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3196,22 +3224,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>141</v>
+        <v>228</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3219,22 +3247,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3242,22 +3270,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3265,22 +3293,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3288,22 +3316,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3311,22 +3339,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3334,22 +3362,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3357,22 +3385,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3380,22 +3408,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3403,22 +3431,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>203</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3426,22 +3454,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3449,22 +3477,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3472,22 +3500,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>141</v>
+        <v>276</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3495,22 +3523,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3518,22 +3546,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>203</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3541,22 +3569,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3564,67 +3592,67 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="13" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_028.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_028.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>ZESTAW ZADAŃ NR 28 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 28 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,40</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>9,00</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>4,90</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>2,30</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,30</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,10</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>26,67</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>19,61</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>30,57</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>26,51</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>21,53</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>16,80</t>
-  </si>
-  <si>
-    <t>17,63</t>
-  </si>
-  <si>
-    <t>2,63</t>
-  </si>
-  <si>
-    <t>19,76</t>
-  </si>
-  <si>
-    <t>17,69</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>10,52</t>
-  </si>
-  <si>
-    <t>9,25</t>
-  </si>
-  <si>
-    <t>10,08</t>
-  </si>
-  <si>
-    <t>20,31</t>
-  </si>
-  <si>
-    <t>29,78</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -412,144 +334,96 @@
     <t>25.09.1996</t>
   </si>
   <si>
-    <t>14 048,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Wilk</t>
   </si>
   <si>
     <t>08.05.1975</t>
   </si>
   <si>
-    <t>12 494,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Piotrowski</t>
   </si>
   <si>
     <t>17.01.1998</t>
   </si>
   <si>
-    <t>3 793,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Maciejewska</t>
   </si>
   <si>
     <t>09.10.1979</t>
   </si>
   <si>
-    <t>4 739,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Zawadzka</t>
   </si>
   <si>
     <t>21.04.1985</t>
   </si>
   <si>
-    <t>12 337,00 zł</t>
-  </si>
-  <si>
     <t>Julia Olszewska</t>
   </si>
   <si>
     <t>24.03.1992</t>
   </si>
   <si>
-    <t>11 806,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Kowalski</t>
   </si>
   <si>
     <t>18.09.1992</t>
   </si>
   <si>
-    <t>3 681,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Kamiński</t>
   </si>
   <si>
     <t>01.03.2004</t>
   </si>
   <si>
-    <t>13 927,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Wójcik</t>
   </si>
   <si>
     <t>24.07.1980</t>
   </si>
   <si>
-    <t>6 953,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Rogalska</t>
   </si>
   <si>
     <t>15.12.1985</t>
   </si>
   <si>
-    <t>6 972,00 zł</t>
-  </si>
-  <si>
     <t>Lena Jaworska</t>
   </si>
   <si>
     <t>24.03.1996</t>
   </si>
   <si>
-    <t>11 522,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Zawadzka</t>
   </si>
   <si>
     <t>21.08.1983</t>
   </si>
   <si>
-    <t>9 408,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Nowak</t>
   </si>
   <si>
     <t>23.07.1993</t>
   </si>
   <si>
-    <t>4 351,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Bednarska</t>
   </si>
   <si>
     <t>09.01.1988</t>
   </si>
   <si>
-    <t>12 085,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Kowalczyk</t>
   </si>
   <si>
     <t>06.10.1980</t>
   </si>
   <si>
-    <t>3 191,00 zł</t>
-  </si>
-  <si>
     <t>Maja Rogalska</t>
   </si>
   <si>
     <t>17.10.1995</t>
   </si>
   <si>
-    <t>9 528,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -562,9 +436,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -625,12 +496,6 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 204,00 zł</t>
-  </si>
-  <si>
-    <t>1 625,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -643,12 +508,6 @@
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>800,00 zł</t>
-  </si>
-  <si>
-    <t>928,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -658,12 +517,6 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>755,00 zł</t>
-  </si>
-  <si>
-    <t>929,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -673,12 +526,6 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>577,00 zł</t>
-  </si>
-  <si>
-    <t>721,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -688,24 +535,12 @@
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>968,00 zł</t>
-  </si>
-  <si>
-    <t>1 258,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 164,00 zł</t>
-  </si>
-  <si>
-    <t>1 630,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
@@ -715,30 +550,12 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 346,00 zł</t>
-  </si>
-  <si>
-    <t>1 683,00 zł</t>
-  </si>
-  <si>
     <t>opolskie</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 095,00 zł</t>
-  </si>
-  <si>
-    <t>1 205,00 zł</t>
-  </si>
-  <si>
-    <t>1 455,00 zł</t>
-  </si>
-  <si>
-    <t>1 790,00 zł</t>
-  </si>
-  <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
@@ -748,21 +565,9 @@
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>587,00 zł</t>
-  </si>
-  <si>
-    <t>646,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
-    <t>720,00 zł</t>
-  </si>
-  <si>
-    <t>886,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -772,30 +577,12 @@
     <t>czerwiec</t>
   </si>
   <si>
-    <t>1 370,00 zł</t>
-  </si>
-  <si>
-    <t>1 534,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
-    <t>1 145,00 zł</t>
-  </si>
-  <si>
-    <t>1 271,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
-    <t>1 349,00 zł</t>
-  </si>
-  <si>
-    <t>1 700,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -805,12 +592,6 @@
     <t>luty</t>
   </si>
   <si>
-    <t>1 073,00 zł</t>
-  </si>
-  <si>
-    <t>1 266,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -820,82 +601,25 @@
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 440,00 zł</t>
-  </si>
-  <si>
-    <t>1 872,00 zł</t>
-  </si>
-  <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>522,00 zł</t>
-  </si>
-  <si>
-    <t>731,00 zł</t>
-  </si>
-  <si>
-    <t>809,00 zł</t>
-  </si>
-  <si>
-    <t>1 011,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>1 410,00 zł</t>
-  </si>
-  <si>
-    <t>1 875,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
-    <t>938,00 zł</t>
-  </si>
-  <si>
-    <t>1 294,00 zł</t>
-  </si>
-  <si>
-    <t>1 130,00 zł</t>
-  </si>
-  <si>
-    <t>1 300,00 zł</t>
-  </si>
-  <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 082,00 zł</t>
-  </si>
-  <si>
-    <t>1 288,00 zł</t>
-  </si>
-  <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>742,00 zł</t>
-  </si>
-  <si>
-    <t>987,00 zł</t>
-  </si>
-  <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 021,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
-  </si>
-  <si>
-    <t>1 282,00 zł</t>
-  </si>
-  <si>
-    <t>1 756,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -917,7 +641,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -974,14 +700,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -992,8 +718,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1024,30 +750,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1350,7 +1077,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1425,25 +1152,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1466,7 +1193,7 @@
       <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1487,7 +1214,7 @@
       <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1508,7 +1235,7 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1529,7 +1256,7 @@
       <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1550,7 +1277,7 @@
       <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1571,7 +1298,7 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1592,7 +1319,7 @@
       <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1613,7 +1340,7 @@
       <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1634,7 +1361,7 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1655,7 +1382,7 @@
       <c r="F26" s="3">
         <v>6</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1676,7 +1403,7 @@
       <c r="F27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1697,27 +1424,17 @@
       <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1751,7 +1468,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1771,7 +1488,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1781,29 +1498,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1811,99 +1528,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.4</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4.9</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.3</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.3</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5.1</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1936,7 +1653,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1961,113 +1678,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>26.67</v>
       </c>
       <c r="C15" s="3">
         <v>11</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>19.61</v>
       </c>
       <c r="C16" s="3">
         <v>46</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>30.57</v>
       </c>
       <c r="C17" s="3">
         <v>19</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>26.51</v>
       </c>
       <c r="C18" s="3">
         <v>27</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>21.53</v>
       </c>
       <c r="C19" s="3">
         <v>12</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2076,94 +1793,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>16.8</v>
       </c>
       <c r="C24" s="3">
         <v>42</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>17.63</v>
       </c>
       <c r="C25" s="3">
         <v>46</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2.63</v>
       </c>
       <c r="C26" s="3">
         <v>18</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>19.76</v>
       </c>
       <c r="C27" s="3">
         <v>11</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>17.69</v>
       </c>
       <c r="C28" s="3">
         <v>32</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2172,98 +1889,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>10.52</v>
       </c>
       <c r="C33" s="3">
         <v>33</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>9.25</v>
       </c>
       <c r="C34" s="3">
         <v>43</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>10.08</v>
       </c>
       <c r="C35" s="3">
         <v>6</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>20.31</v>
       </c>
       <c r="C36" s="3">
         <v>22</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>29.78</v>
       </c>
       <c r="C37" s="3">
         <v>41</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2286,7 +2003,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2306,90 +2023,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -2412,16 +2129,16 @@
       <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
@@ -2444,16 +2161,16 @@
       <c r="J13" s="3">
         <v>3</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -2476,16 +2193,16 @@
       <c r="J14" s="3">
         <v>2</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -2508,16 +2225,16 @@
       <c r="J15" s="3">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -2540,16 +2257,16 @@
       <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
@@ -2572,16 +2289,16 @@
       <c r="J17" s="3">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
@@ -2604,40 +2321,40 @@
       <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2670,255 +2387,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>119</v>
+      <c r="A1" s="15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>127</v>
+      <c r="A10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
+      </c>
+      <c r="C11" s="7">
+        <v>14048</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>133</v>
+        <v>105</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12494</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3793</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>109</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4739</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>142</v>
+        <v>111</v>
+      </c>
+      <c r="C15" s="7">
+        <v>12337</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>113</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11806</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>148</v>
+        <v>115</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3681</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>117</v>
+      </c>
+      <c r="C18" s="7">
+        <v>13927</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>154</v>
+        <v>119</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6953</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>157</v>
+        <v>121</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6972</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>160</v>
+        <v>123</v>
+      </c>
+      <c r="C21" s="7">
+        <v>11522</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
+      </c>
+      <c r="C22" s="7">
+        <v>9408</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>166</v>
+        <v>127</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4351</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>169</v>
+        <v>129</v>
+      </c>
+      <c r="C24" s="7">
+        <v>12085</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3191</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
+      </c>
+      <c r="C26" s="7">
+        <v>9528</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
-        <v>176</v>
+      <c r="A29" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B32" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2953,86 +2664,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>181</v>
+      <c r="A1" s="15" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>198</v>
+      <c r="A15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3040,22 +2751,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1204</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1625</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3063,22 +2774,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
+      </c>
+      <c r="D17" s="7">
+        <v>800</v>
+      </c>
+      <c r="E17" s="7">
+        <v>928</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3086,22 +2797,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
+      </c>
+      <c r="D18" s="7">
+        <v>755</v>
+      </c>
+      <c r="E18" s="7">
+        <v>929</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3109,22 +2820,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>218</v>
+        <v>167</v>
+      </c>
+      <c r="D19" s="7">
+        <v>577</v>
+      </c>
+      <c r="E19" s="7">
+        <v>721</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3132,22 +2843,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>223</v>
+        <v>170</v>
+      </c>
+      <c r="D20" s="7">
+        <v>968</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1258</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3155,22 +2866,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1164</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1630</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3178,22 +2889,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>232</v>
+        <v>175</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1346</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1683</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3201,22 +2912,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>236</v>
+        <v>177</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1095</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1205</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3224,22 +2935,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>238</v>
+        <v>161</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1455</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1790</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3247,22 +2958,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>243</v>
+        <v>180</v>
+      </c>
+      <c r="D25" s="7">
+        <v>587</v>
+      </c>
+      <c r="E25" s="7">
+        <v>646</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3270,22 +2981,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>246</v>
+        <v>167</v>
+      </c>
+      <c r="D26" s="7">
+        <v>720</v>
+      </c>
+      <c r="E26" s="7">
+        <v>886</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3293,22 +3004,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>251</v>
+        <v>157</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1370</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1534</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3316,22 +3027,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>254</v>
+        <v>164</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1145</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1271</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3339,22 +3050,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>257</v>
+        <v>164</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1349</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1700</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3362,22 +3073,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>262</v>
+        <v>177</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1073</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1266</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3385,22 +3096,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>267</v>
+        <v>192</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1440</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1872</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3408,22 +3119,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>270</v>
+        <v>193</v>
+      </c>
+      <c r="D32" s="7">
+        <v>522</v>
+      </c>
+      <c r="E32" s="7">
+        <v>731</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3431,22 +3142,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>272</v>
+        <v>180</v>
+      </c>
+      <c r="D33" s="7">
+        <v>809</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1011</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3454,22 +3165,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>275</v>
+        <v>157</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1410</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1875</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3477,22 +3188,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>278</v>
+        <v>167</v>
+      </c>
+      <c r="D35" s="7">
+        <v>938</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1294</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3500,22 +3211,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>280</v>
+        <v>161</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1130</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1300</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3523,22 +3234,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>283</v>
+        <v>196</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1082</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1288</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3546,22 +3257,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>286</v>
+        <v>197</v>
+      </c>
+      <c r="D38" s="7">
+        <v>742</v>
+      </c>
+      <c r="E38" s="7">
+        <v>987</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3569,22 +3280,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>262</v>
+        <v>198</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1021</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1266</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>289</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3592,68 +3303,58 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>291</v>
+        <v>177</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1282</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1756</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>176</v>
+      <c r="A43" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>292</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>293</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>295</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>296</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_028.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_028.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t>ZESTAW ZADAŃ NR 28 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Julia Jaworska</t>
-  </si>
-  <si>
-    <t>Antoni Lewandowski</t>
-  </si>
-  <si>
-    <t>Oliwia Jaworska</t>
-  </si>
-  <si>
-    <t>Wojciech Krawczyk</t>
-  </si>
-  <si>
-    <t>Kacper Kamiński</t>
+    <t>Jan Wójcik</t>
+  </si>
+  <si>
+    <t>Szymon Wojciechowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Borkowska</t>
+  </si>
+  <si>
+    <t>Amelia Wójcik</t>
+  </si>
+  <si>
+    <t>Lena Król</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 28 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,13 +149,7 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
+    <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
     <t>Długopis niebieski</t>
@@ -160,9 +158,15 @@
     <t>Gumka do mazania</t>
   </si>
   <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,40 +266,43 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
   </si>
   <si>
     <t>Hanna</t>
   </si>
   <si>
-    <t>Malinowska</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Grabowski</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Urbaniak</t>
-  </si>
-  <si>
-    <t>Kowalski</t>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Sadowska</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
   </si>
   <si>
     <t>Adam</t>
   </si>
   <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Piekarska</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
+    <t>Piotrowski</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -328,100 +338,55 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Lena Olszewska</t>
-  </si>
-  <si>
-    <t>25.09.1996</t>
-  </si>
-  <si>
-    <t>Hanna Wilk</t>
-  </si>
-  <si>
-    <t>08.05.1975</t>
-  </si>
-  <si>
-    <t>Jakub Piotrowski</t>
-  </si>
-  <si>
-    <t>17.01.1998</t>
-  </si>
-  <si>
-    <t>Zuzanna Maciejewska</t>
-  </si>
-  <si>
-    <t>09.10.1979</t>
-  </si>
-  <si>
-    <t>Oliwia Zawadzka</t>
-  </si>
-  <si>
-    <t>21.04.1985</t>
-  </si>
-  <si>
-    <t>Julia Olszewska</t>
-  </si>
-  <si>
-    <t>24.03.1992</t>
-  </si>
-  <si>
-    <t>Jakub Kowalski</t>
-  </si>
-  <si>
-    <t>18.09.1992</t>
-  </si>
-  <si>
-    <t>Mikołaj Kamiński</t>
-  </si>
-  <si>
-    <t>01.03.2004</t>
-  </si>
-  <si>
-    <t>Antoni Wójcik</t>
-  </si>
-  <si>
-    <t>24.07.1980</t>
-  </si>
-  <si>
-    <t>Oliwia Rogalska</t>
-  </si>
-  <si>
-    <t>15.12.1985</t>
-  </si>
-  <si>
-    <t>Lena Jaworska</t>
-  </si>
-  <si>
-    <t>24.03.1996</t>
+    <t>Amelia Piekarska</t>
+  </si>
+  <si>
+    <t>Szymon Nowak</t>
+  </si>
+  <si>
+    <t>Anna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Amelia Król</t>
+  </si>
+  <si>
+    <t>Filip Piotrowski</t>
+  </si>
+  <si>
+    <t>Natalia Lis</t>
+  </si>
+  <si>
+    <t>Amelia Jaworska</t>
+  </si>
+  <si>
+    <t>Jan Woźniak</t>
+  </si>
+  <si>
+    <t>Mikołaj Kowalski</t>
+  </si>
+  <si>
+    <t>Mikołaj Kaczmarek</t>
+  </si>
+  <si>
+    <t>Emilia Jaworska</t>
+  </si>
+  <si>
+    <t>Emilia Olszewska</t>
   </si>
   <si>
     <t>Emilia Zawadzka</t>
   </si>
   <si>
-    <t>21.08.1983</t>
-  </si>
-  <si>
-    <t>Jakub Nowak</t>
-  </si>
-  <si>
-    <t>23.07.1993</t>
-  </si>
-  <si>
-    <t>Hanna Bednarska</t>
-  </si>
-  <si>
-    <t>09.01.1988</t>
-  </si>
-  <si>
-    <t>Szymon Kowalczyk</t>
-  </si>
-  <si>
-    <t>06.10.1980</t>
-  </si>
-  <si>
-    <t>Maja Rogalska</t>
-  </si>
-  <si>
-    <t>17.10.1995</t>
+    <t>Hanna Malinowska</t>
+  </si>
+  <si>
+    <t>Wojciech Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Grabowski</t>
+  </si>
+  <si>
+    <t>Antoni Dąbrowski</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -436,7 +401,73 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Jan Wojciechowski</t>
+  </si>
+  <si>
+    <t>Adam Kozłowski</t>
+  </si>
+  <si>
+    <t>Antoni Nowak</t>
+  </si>
+  <si>
+    <t>Julia Kubiak</t>
+  </si>
+  <si>
+    <t>Natalia Król</t>
+  </si>
+  <si>
+    <t>Kacper Krawczyk</t>
+  </si>
+  <si>
+    <t>Oliwia Bednarska</t>
+  </si>
+  <si>
+    <t>Lena Rogalska</t>
+  </si>
+  <si>
+    <t>Hanna Wójcik</t>
+  </si>
+  <si>
+    <t>Antoni Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Kacper Wójcik</t>
+  </si>
+  <si>
+    <t>Lena Wilk</t>
+  </si>
+  <si>
+    <t>Aleksander Kaczmarek</t>
+  </si>
+  <si>
+    <t>Filip Jankowski</t>
+  </si>
+  <si>
+    <t>Hanna Piekarska</t>
+  </si>
+  <si>
+    <t>Lena Zawadzka</t>
+  </si>
+  <si>
+    <t>Natalia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -490,136 +521,160 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
     <t>kwiecień</t>
   </si>
   <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>opolskie</t>
   </si>
   <si>
     <t>maj</t>
   </si>
   <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
   </si>
   <si>
     <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -691,7 +746,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,12 +769,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -750,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -761,13 +810,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1074,7 +1122,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1179,19 +1227,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1200,19 +1248,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="3">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
       <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1221,19 +1269,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
       </c>
       <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
         <v>5</v>
       </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
       <c r="F19" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1242,19 +1290,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1263,19 +1311,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1284,13 +1332,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
       </c>
       <c r="D22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="3">
         <v>6</v>
@@ -1308,16 +1356,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4</v>
-      </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1329,16 +1377,16 @@
         <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>6</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1350,16 +1398,16 @@
         <v>5</v>
       </c>
       <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
         <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3">
-        <v>6</v>
-      </c>
-      <c r="F25" s="3">
-        <v>6</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1368,19 +1416,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3">
         <v>2</v>
       </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1389,19 +1437,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
-        <v>6</v>
-      </c>
       <c r="D27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1410,19 +1458,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
       </c>
       <c r="D28" s="3">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3">
         <v>5</v>
       </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1435,6 +1483,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1468,7 +1522,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1488,7 +1542,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1498,29 +1552,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1528,99 +1582,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.4</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>17.4</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>9</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.3</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4.9</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1.7</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2.3</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2.9</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1.3</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3.9</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5.1</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5.5</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1637,10 +1691,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1653,7 +1707,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1678,27 +1732,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1706,85 +1760,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>26.67</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>30.7</v>
       </c>
       <c r="C15" s="3">
-        <v>11</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>19.61</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3.12</v>
       </c>
       <c r="C16" s="3">
-        <v>46</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>30.57</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>24.5</v>
       </c>
       <c r="C17" s="3">
-        <v>19</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>26.51</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>11.7</v>
       </c>
       <c r="C18" s="3">
-        <v>27</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>21.53</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>21.45</v>
       </c>
       <c r="C19" s="3">
-        <v>12</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1793,8 +1847,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1802,85 +1856,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>16.8</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>18.63</v>
       </c>
       <c r="C24" s="3">
-        <v>42</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>17.63</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>24.42</v>
       </c>
       <c r="C25" s="3">
-        <v>46</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>2.63</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>10.45</v>
       </c>
       <c r="C26" s="3">
-        <v>18</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>19.76</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1.01</v>
       </c>
       <c r="C27" s="3">
-        <v>11</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>17.69</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>23.4</v>
       </c>
       <c r="C28" s="3">
-        <v>32</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1889,8 +1943,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1898,89 +1952,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>10.52</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>19.21</v>
       </c>
       <c r="C33" s="3">
-        <v>33</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>9.25</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4.14</v>
       </c>
       <c r="C34" s="3">
-        <v>43</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>10.08</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>29.93</v>
       </c>
       <c r="C35" s="3">
-        <v>6</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>20.31</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>18.76</v>
       </c>
       <c r="C36" s="3">
-        <v>22</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>29.78</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>3.23</v>
       </c>
       <c r="C37" s="3">
-        <v>41</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2000,10 +2062,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L20"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2023,111 +2085,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
         <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2135,28 +2197,28 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
         <v>4</v>
       </c>
       <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4</v>
+      </c>
+      <c r="I13" s="3">
         <v>3</v>
-      </c>
-      <c r="G13" s="3">
-        <v>5</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2</v>
       </c>
       <c r="J13" s="3">
         <v>3</v>
@@ -2167,31 +2229,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>6</v>
-      </c>
-      <c r="I14" s="3">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2199,31 +2261,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6</v>
+      </c>
+      <c r="J15" s="3">
         <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2231,28 +2293,28 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
         <v>2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
         <v>2</v>
@@ -2263,70 +2325,54 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="3">
         <v>2</v>
       </c>
       <c r="J17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2337,30 +2383,14 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2373,10 +2403,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A30" sqref="A30:B32"/>
+      <selection activeCell="A32" sqref="A32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2387,249 +2417,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>93</v>
+      <c r="A1" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="7">
-        <v>14048</v>
+        <v>105</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C11" s="8">
+        <v>14549</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="7">
-        <v>12494</v>
+        <v>106</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C12" s="8">
+        <v>9757</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="7">
-        <v>3793</v>
+      <c r="B13" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2767</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4739</v>
+      <c r="B14" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C14" s="8">
+        <v>12224</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="7">
-        <v>12337</v>
+        <v>109</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C15" s="8">
+        <v>9267</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11806</v>
+        <v>109</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C16" s="8">
+        <v>8605</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="7">
-        <v>3681</v>
+        <v>110</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C17" s="8">
+        <v>12060</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="7">
-        <v>13927</v>
+        <v>111</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C18" s="8">
+        <v>4239</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="7">
-        <v>6953</v>
+        <v>112</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C19" s="8">
+        <v>11241</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6972</v>
+        <v>113</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C20" s="8">
+        <v>6949</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="7">
-        <v>11522</v>
+        <v>114</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C21" s="8">
+        <v>5001</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="7">
-        <v>9408</v>
+        <v>115</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C22" s="8">
+        <v>14178</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="7">
-        <v>4351</v>
+        <v>116</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C23" s="8">
+        <v>9730</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="7">
-        <v>12085</v>
+        <v>117</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C24" s="8">
+        <v>11817</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="7">
-        <v>3191</v>
+        <v>118</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3765</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="7">
-        <v>9528</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C26" s="8">
+        <v>10387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C27" s="8">
+        <v>13439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C28" s="8">
+        <v>11544</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="6"/>
+      <c r="A31" s="16" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2646,10 +2698,239 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A44" sqref="A44:B48"/>
+      <selection activeCell="A10" sqref="A10:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="3">
+        <v>121</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="3">
+        <v>190</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="3">
+        <v>189</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="3">
+        <v>163</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="3">
+        <v>103</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="3">
+        <v>190</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="3">
+        <v>123</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="3">
+        <v>199</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="3">
+        <v>122</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="3">
+        <v>188</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="3">
+        <v>171</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="3">
+        <v>95</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="3">
+        <v>173</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="3">
+        <v>123</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="3">
+        <v>106</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="3">
+        <v>102</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="3">
+        <v>98</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="3">
+        <v>130</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A49" sqref="A49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2664,86 +2945,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>138</v>
+      <c r="A1" s="14" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2751,22 +3032,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1204</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1625</v>
+        <v>167</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1293</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1616</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2774,22 +3055,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="7">
-        <v>800</v>
-      </c>
-      <c r="E17" s="7">
-        <v>928</v>
+        <v>171</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1112</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1446</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2797,22 +3078,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="7">
-        <v>755</v>
-      </c>
-      <c r="E18" s="7">
-        <v>929</v>
+        <v>167</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1435</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1708</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2820,22 +3101,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="7">
-        <v>577</v>
-      </c>
-      <c r="E19" s="7">
-        <v>721</v>
+        <v>176</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1244</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1493</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2843,22 +3124,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="7">
-        <v>968</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1258</v>
+        <v>178</v>
+      </c>
+      <c r="D20" s="8">
+        <v>697</v>
+      </c>
+      <c r="E20" s="8">
+        <v>955</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2866,22 +3147,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1164</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1630</v>
+        <v>167</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1378</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1764</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2889,22 +3170,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1346</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1683</v>
+        <v>182</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1041</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1457</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2912,22 +3193,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1095</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1205</v>
+        <v>182</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1446</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1677</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2935,22 +3216,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1455</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1790</v>
+        <v>187</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1027</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1140</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2958,22 +3239,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="7">
-        <v>587</v>
-      </c>
-      <c r="E25" s="7">
-        <v>646</v>
+        <v>178</v>
+      </c>
+      <c r="D25" s="8">
+        <v>823</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1037</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2981,22 +3262,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="7">
-        <v>720</v>
-      </c>
-      <c r="E26" s="7">
-        <v>886</v>
+        <v>189</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1462</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1681</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3004,22 +3285,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1370</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1534</v>
+        <v>192</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1190</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1321</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3027,22 +3308,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1145</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1271</v>
+        <v>193</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1270</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1588</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3050,22 +3331,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1349</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1700</v>
+        <v>195</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1025</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1128</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3073,22 +3354,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="7">
+        <v>198</v>
+      </c>
+      <c r="D30" s="8">
         <v>1073</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <v>1266</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3096,22 +3377,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1440</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1872</v>
+        <v>200</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1276</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1455</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3119,22 +3400,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="7">
-        <v>522</v>
-      </c>
-      <c r="E32" s="7">
-        <v>731</v>
+        <v>202</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1279</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1484</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3142,22 +3423,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1375</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1664</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="D33" s="7">
-        <v>809</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1011</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3165,22 +3446,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1410</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1875</v>
+        <v>202</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1435</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1622</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3188,22 +3469,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="7">
-        <v>938</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1294</v>
+        <v>205</v>
+      </c>
+      <c r="D35" s="8">
+        <v>756</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1043</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3211,22 +3492,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1130</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1300</v>
+        <v>206</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1295</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1658</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3234,22 +3515,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1082</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1288</v>
+        <v>198</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1470</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2014</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3257,22 +3538,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38" s="7">
-        <v>742</v>
-      </c>
-      <c r="E38" s="7">
-        <v>987</v>
+        <v>198</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1358</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1820</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3280,22 +3561,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1021</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1266</v>
+        <v>211</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1493</v>
+      </c>
+      <c r="E39" s="8">
+        <v>2001</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3303,58 +3584,173 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1283</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1732</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1303</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1603</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1053</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1316</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1078</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1466</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="7">
-        <v>1282</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1756</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="17" t="s">
-        <v>134</v>
+      <c r="G43" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>200</v>
-      </c>
-      <c r="B44" s="6"/>
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1245</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1569</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" t="s">
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1428</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1685</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47" s="6"/>
+      <c r="G45" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>204</v>
-      </c>
-      <c r="B48" s="6"/>
+      <c r="A48" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
